--- a/templates/Lamp 8.xlsx
+++ b/templates/Lamp 8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="9690" windowHeight="6495"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="9690" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -255,6 +255,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -549,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -655,6 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +819,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -847,7 +853,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1023,11 +1028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44:J52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1597,7 +1602,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="55" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1644,11 +1649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43:L51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2295,7 +2300,7 @@
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="55" t="s">
         <v>41</v>
       </c>
     </row>
